--- a/Genomic Selection_SALVA/BLUPs_scaled.xlsx
+++ b/Genomic Selection_SALVA/BLUPs_scaled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salva\Documents\GitHub\Genomic-Selection\Genomic Selection_SALVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACD6038-46A5-4B0E-947B-DE04CF0C85FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F5038-CE8C-4173-ADD5-8501D85D2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="131">
   <si>
     <t>GEN</t>
   </si>
@@ -424,6 +424,9 @@
   <si>
     <t>Unknown</t>
   </si>
+  <si>
+    <t>MDPr</t>
+  </si>
 </sst>
 </file>
 
@@ -432,16 +435,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -469,11 +464,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -771,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W321"/>
+  <dimension ref="A1:V321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,17 +790,17 @@
     <col min="19" max="19" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E1" t="s">
@@ -860,9 +854,11 @@
       <c r="U1" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -926,8 +922,11 @@
       <c r="U2">
         <v>1.12661992971131</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <v>0.58490387099999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1149</v>
       </c>
@@ -991,8 +990,11 @@
       <c r="U3">
         <v>0.86503252967655098</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <v>0.45716583100000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1174</v>
       </c>
@@ -1056,8 +1058,11 @@
       <c r="U4">
         <v>1.4981014490053901</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <v>0.59850685999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1258</v>
       </c>
@@ -1121,8 +1126,11 @@
       <c r="U5">
         <v>0.92558092257427105</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <v>0.51565714500000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>26</v>
       </c>
@@ -1186,8 +1194,11 @@
       <c r="U6">
         <v>1.1824123304629499</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <v>0.61753493800000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>49</v>
       </c>
@@ -1251,8 +1262,11 @@
       <c r="U7">
         <v>0.771325380077167</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <v>0.43682090299999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>496</v>
       </c>
@@ -1316,8 +1330,11 @@
       <c r="U8">
         <v>0.88121689922511104</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <v>0.63305916900000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>743</v>
       </c>
@@ -1381,8 +1398,11 @@
       <c r="U9">
         <v>0.97177752043388799</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <v>0.59269535299999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>942</v>
       </c>
@@ -1446,8 +1466,11 @@
       <c r="U10">
         <v>1.0484815645011301</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <v>0.61581855900000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1511,8 +1534,11 @@
       <c r="U11">
         <v>0.77090992828154403</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>0.56307695099999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1119</v>
       </c>
@@ -1576,8 +1602,11 @@
       <c r="U12">
         <v>0.84156088985594502</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <v>0.37626890499999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1135</v>
       </c>
@@ -1641,8 +1670,11 @@
       <c r="U13">
         <v>0.80960615646520095</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V13">
+        <v>0.52571226400000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1706,8 +1738,11 @@
       <c r="U14">
         <v>1.1404760287206599</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <v>0.74526746499999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1157</v>
       </c>
@@ -1771,8 +1806,11 @@
       <c r="U15">
         <v>0.90879768277933104</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V15">
+        <v>0.58005926900000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1175</v>
       </c>
@@ -1836,8 +1874,11 @@
       <c r="U16">
         <v>0.76147529431927197</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <v>0.52732255299999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1477</v>
       </c>
@@ -1901,8 +1942,11 @@
       <c r="U17">
         <v>1.45552491121188</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17">
+        <v>0.54838565299999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>27</v>
       </c>
@@ -1966,8 +2010,11 @@
       <c r="U18">
         <v>0.90659113120894397</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18">
+        <v>0.60291217399999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>64</v>
       </c>
@@ -2031,8 +2078,11 @@
       <c r="U19">
         <v>1.1561705933208799</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V19">
+        <v>0.64178336599999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>505</v>
       </c>
@@ -2096,8 +2146,11 @@
       <c r="U20">
         <v>1.1610551663226401</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V20">
+        <v>0.57225974199999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>760</v>
       </c>
@@ -2161,8 +2214,11 @@
       <c r="U21">
         <v>0.87098398189744097</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21">
+        <v>0.47859722799999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>944</v>
       </c>
@@ -2226,8 +2282,11 @@
       <c r="U22">
         <v>0.91247209273506302</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22">
+        <v>0.52523485599999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2291,8 +2350,11 @@
       <c r="U23">
         <v>0.89261045209821399</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23">
+        <v>0.48375838399999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1121</v>
       </c>
@@ -2356,8 +2418,11 @@
       <c r="U24">
         <v>1.0229496350846301</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V24">
+        <v>0.51330474400000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1136</v>
       </c>
@@ -2421,8 +2486,11 @@
       <c r="U25">
         <v>0.94876095260524995</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V25">
+        <v>0.55520198499999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -2486,8 +2554,11 @@
       <c r="U26">
         <v>0.91725313824153398</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V26">
+        <v>0.71749781499999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1158</v>
       </c>
@@ -2551,8 +2622,11 @@
       <c r="U27">
         <v>0.89279158790722701</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V27">
+        <v>0.49691721500000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1176</v>
       </c>
@@ -2616,8 +2690,11 @@
       <c r="U28">
         <v>1.1092275004394501</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V28">
+        <v>0.57481298199999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1556</v>
       </c>
@@ -2681,8 +2758,11 @@
       <c r="U29">
         <v>1.1757833895302401</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V29">
+        <v>0.60096791599999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2746,8 +2826,11 @@
       <c r="U30">
         <v>0.84959292615329096</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V30">
+        <v>0.48839870000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>223</v>
       </c>
@@ -2811,8 +2894,11 @@
       <c r="U31">
         <v>0.78919651148978298</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V31">
+        <v>0.56849735000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>701</v>
       </c>
@@ -2876,8 +2962,11 @@
       <c r="U32">
         <v>0.83178013349137703</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V32">
+        <v>0.54289504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>792</v>
       </c>
@@ -2941,8 +3030,11 @@
       <c r="U33">
         <v>0.72578634488786298</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V33">
+        <v>0.54446587700000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>952</v>
       </c>
@@ -3006,8 +3098,11 @@
       <c r="U34">
         <v>1.4963661778192801</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V34">
+        <v>0.51656180799999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1063</v>
       </c>
@@ -3071,8 +3166,11 @@
       <c r="U35">
         <v>1.10845159860482</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V35">
+        <v>0.60083468100000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1123</v>
       </c>
@@ -3136,8 +3234,11 @@
       <c r="U36">
         <v>0.91347578243033301</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V36">
+        <v>0.46471249100000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1137</v>
       </c>
@@ -3201,8 +3302,11 @@
       <c r="U37">
         <v>0.93373264822574398</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37">
+        <v>0.59564131399999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>22</v>
       </c>
@@ -3266,8 +3370,11 @@
       <c r="U38">
         <v>0.96723377106090003</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V38">
+        <v>0.60294262799999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1160</v>
       </c>
@@ -3331,8 +3438,11 @@
       <c r="U39">
         <v>0.95309483507585002</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V39">
+        <v>0.56314214799999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1184</v>
       </c>
@@ -3396,8 +3506,11 @@
       <c r="U40">
         <v>1.1356472848042201</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V40">
+        <v>0.52645252300000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1564</v>
       </c>
@@ -3461,8 +3574,11 @@
       <c r="U41">
         <v>1.7779485152225101</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V41">
+        <v>0.69288212800000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>30</v>
       </c>
@@ -3526,8 +3642,11 @@
       <c r="U42">
         <v>0.98920212189155898</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V42">
+        <v>0.49264939499999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>264</v>
       </c>
@@ -3591,8 +3710,11 @@
       <c r="U43">
         <v>0.96782753152150702</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V43">
+        <v>0.54532939000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>702</v>
       </c>
@@ -3656,8 +3778,11 @@
       <c r="U44">
         <v>0.75063268093310898</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V44">
+        <v>0.52450986099999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>797</v>
       </c>
@@ -3721,8 +3846,11 @@
       <c r="U45">
         <v>1.06874617163134</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V45">
+        <v>0.58600791299999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>961</v>
       </c>
@@ -3786,8 +3914,11 @@
       <c r="U46">
         <v>0.88631412325716796</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V46">
+        <v>0.50681594500000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1066</v>
       </c>
@@ -3851,8 +3982,11 @@
       <c r="U47">
         <v>0.91387111655422304</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V47">
+        <v>0.61013974199999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1125</v>
       </c>
@@ -3916,8 +4050,11 @@
       <c r="U48">
         <v>0.81922701473410298</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V48">
+        <v>0.52416357199999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1138</v>
       </c>
@@ -3981,8 +4118,11 @@
       <c r="U49">
         <v>0.77483618645872698</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V49">
+        <v>0.49001846799999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>23</v>
       </c>
@@ -4046,8 +4186,11 @@
       <c r="U50">
         <v>0.83386332437441901</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V50">
+        <v>0.62380490600000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1167</v>
       </c>
@@ -4111,8 +4254,11 @@
       <c r="U51">
         <v>0.843856913739638</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V51">
+        <v>0.53744821099999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1186</v>
       </c>
@@ -4176,8 +4322,11 @@
       <c r="U52">
         <v>0.92034514442061299</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V52">
+        <v>0.54035170200000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1580</v>
       </c>
@@ -4241,8 +4390,11 @@
       <c r="U53">
         <v>1.11947542857383</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V53">
+        <v>0.80428116100000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>32</v>
       </c>
@@ -4306,8 +4458,11 @@
       <c r="U54">
         <v>1.0383541484618899</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V54">
+        <v>0.49903466099999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>265</v>
       </c>
@@ -4371,8 +4526,11 @@
       <c r="U55">
         <v>0.84747363301337797</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V55">
+        <v>0.86888587799999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>728</v>
       </c>
@@ -4436,8 +4594,11 @@
       <c r="U56">
         <v>1.2656298865775</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V56">
+        <v>0.53442282699999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>798</v>
       </c>
@@ -4501,8 +4662,11 @@
       <c r="U57">
         <v>1.09431952205543</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V57">
+        <v>0.55771920799999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1043</v>
       </c>
@@ -4566,8 +4730,11 @@
       <c r="U58">
         <v>0.88636499422676795</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V58">
+        <v>0.45462039199999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1069</v>
       </c>
@@ -4631,8 +4798,11 @@
       <c r="U59">
         <v>0.78476061626488902</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V59">
+        <v>0.51589132800000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1128</v>
       </c>
@@ -4696,8 +4866,11 @@
       <c r="U60">
         <v>1.14047435610105</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V60">
+        <v>0.36974188400000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1140</v>
       </c>
@@ -4761,8 +4934,11 @@
       <c r="U61">
         <v>1.0031684675563799</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V61">
+        <v>0.52141086599999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -4826,8 +5002,11 @@
       <c r="U62">
         <v>0.82572519537185896</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V62">
+        <v>0.58797891700000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1168</v>
       </c>
@@ -4891,8 +5070,11 @@
       <c r="U63">
         <v>0.88972136651700096</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V63">
+        <v>0.52168121199999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1189</v>
       </c>
@@ -4956,8 +5138,11 @@
       <c r="U64">
         <v>0.80157212074809203</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V64">
+        <v>0.534068604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1818</v>
       </c>
@@ -5021,8 +5206,11 @@
       <c r="U65">
         <v>1.0227706869856099</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V65">
+        <v>0.66596417299999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -5086,8 +5274,11 @@
       <c r="U66">
         <v>1.3473634386917499</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V66">
+        <v>0.50520396899999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>266</v>
       </c>
@@ -5151,8 +5342,11 @@
       <c r="U67">
         <v>1.5504993069251001</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V67">
+        <v>0.87503821699999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>729</v>
       </c>
@@ -5216,8 +5410,11 @@
       <c r="U68">
         <v>1.09369861537493</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V68">
+        <v>0.50026420999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>801</v>
       </c>
@@ -5281,8 +5478,11 @@
       <c r="U69">
         <v>0.95922147439615701</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V69">
+        <v>0.58392460499999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1046</v>
       </c>
@@ -5346,8 +5546,11 @@
       <c r="U70">
         <v>1.0610451770459799</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V70">
+        <v>0.51176021900000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1073</v>
       </c>
@@ -5411,8 +5614,11 @@
       <c r="U71">
         <v>1.0406481773329701</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V71">
+        <v>0.58890877500000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1130</v>
       </c>
@@ -5476,8 +5682,11 @@
       <c r="U72">
         <v>1.1022449035473401</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V72">
+        <v>0.49904503099999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1143</v>
       </c>
@@ -5541,8 +5750,11 @@
       <c r="U73">
         <v>0.89892047179868795</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V73">
+        <v>0.52730832299999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -5606,8 +5818,11 @@
       <c r="U74">
         <v>0.92757600691308495</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V74">
+        <v>0.483030289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1171</v>
       </c>
@@ -5671,8 +5886,11 @@
       <c r="U75">
         <v>0.86543107172065004</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V75">
+        <v>0.49713615</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1190</v>
       </c>
@@ -5736,8 +5954,11 @@
       <c r="U76">
         <v>0.77180688780847895</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V76">
+        <v>0.48261583699999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -5801,8 +6022,11 @@
       <c r="U77">
         <v>0.90999495201312197</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V77">
+        <v>0.48188520400000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>494</v>
       </c>
@@ -5866,8 +6090,11 @@
       <c r="U78">
         <v>1.0576068238682801</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V78">
+        <v>0.59440218199999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>738</v>
       </c>
@@ -5931,8 +6158,11 @@
       <c r="U79">
         <v>0.70688644713827997</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V79">
+        <v>0.48759226500000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>904</v>
       </c>
@@ -5996,8 +6226,11 @@
       <c r="U80">
         <v>1.1266376703435499</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V80">
+        <v>0.58723485600000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1052</v>
       </c>
@@ -6061,8 +6294,11 @@
       <c r="U81">
         <v>0.79358350571274405</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V81">
+        <v>0.497422272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1086</v>
       </c>
@@ -6126,8 +6362,11 @@
       <c r="U82">
         <v>0.88279975474847605</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V82">
+        <v>0.45879139499999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1132</v>
       </c>
@@ -6191,8 +6430,11 @@
       <c r="U83">
         <v>0.97020972012775397</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V83">
+        <v>0.48002845700000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1144</v>
       </c>
@@ -6256,8 +6498,11 @@
       <c r="U84">
         <v>1.1450669631727</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V84">
+        <v>0.58601766700000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25</v>
       </c>
@@ -6321,8 +6566,11 @@
       <c r="U85">
         <v>0.95066677680058198</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V85">
+        <v>0.57258462099999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1173</v>
       </c>
@@ -6386,8 +6634,11 @@
       <c r="U86">
         <v>0.73720094509621603</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V86">
+        <v>0.58687797600000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1199</v>
       </c>
@@ -6451,8 +6702,11 @@
       <c r="U87">
         <v>0.89375214179740803</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V87">
+        <v>0.41815839500000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>34</v>
       </c>
@@ -6516,8 +6770,11 @@
       <c r="U88">
         <v>1.49564189932333</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V88">
+        <v>0.77325378099999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>495</v>
       </c>
@@ -6581,8 +6838,11 @@
       <c r="U89">
         <v>0.74901277853608705</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V89">
+        <v>0.57851715199999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>742</v>
       </c>
@@ -6646,8 +6906,11 @@
       <c r="U90">
         <v>0.845735219354256</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V90">
+        <v>0.49265074800000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>906</v>
       </c>
@@ -6711,8 +6974,11 @@
       <c r="U91">
         <v>0.853074008953709</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V91">
+        <v>0.39734364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1059</v>
       </c>
@@ -6776,8 +7042,11 @@
       <c r="U92">
         <v>0.75558418726575505</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V92">
+        <v>0.488531453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1118</v>
       </c>
@@ -6841,8 +7110,11 @@
       <c r="U93">
         <v>0.92965623249966101</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V93">
+        <v>0.44612051000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1134</v>
       </c>
@@ -6906,8 +7178,11 @@
       <c r="U94">
         <v>1.08376320283268</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V94">
+        <v>0.407530479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1148</v>
       </c>
@@ -6971,8 +7246,11 @@
       <c r="U95">
         <v>1.16856418416837</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V95">
+        <v>0.580709857</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1943</v>
       </c>
@@ -7036,8 +7314,11 @@
       <c r="U96">
         <v>0.68241291208851895</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V96">
+        <v>0.43831278899999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2372</v>
       </c>
@@ -7101,8 +7382,11 @@
       <c r="U97">
         <v>0.90936243571193898</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V97">
+        <v>0.52585540200000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2458</v>
       </c>
@@ -7166,8 +7450,11 @@
       <c r="U98">
         <v>0.88673362933766298</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V98">
+        <v>0.53720306500000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2617</v>
       </c>
@@ -7231,8 +7518,11 @@
       <c r="U99">
         <v>0.91391885953806895</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V99">
+        <v>0.57702951599999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1975</v>
       </c>
@@ -7296,8 +7586,11 @@
       <c r="U100">
         <v>0.87716153157514698</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V100">
+        <v>0.552976358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1983</v>
       </c>
@@ -7361,8 +7654,11 @@
       <c r="U101">
         <v>0.99778366779114702</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V101">
+        <v>0.61495253699999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2005</v>
       </c>
@@ -7426,8 +7722,11 @@
       <c r="U102">
         <v>1.3802821753358401</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V102">
+        <v>0.59023797200000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2037</v>
       </c>
@@ -7491,8 +7790,11 @@
       <c r="U103">
         <v>0.88340949605498698</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V103">
+        <v>0.55858288300000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2088</v>
       </c>
@@ -7556,8 +7858,11 @@
       <c r="U104">
         <v>1.40537046835071</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V104">
+        <v>0.67388710900000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2208</v>
       </c>
@@ -7621,8 +7926,11 @@
       <c r="U105">
         <v>0.97300152465829504</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V105">
+        <v>0.46025776000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2294</v>
       </c>
@@ -7686,8 +7994,11 @@
       <c r="U106">
         <v>0.95289453679713298</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V106">
+        <v>0.55592649599999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2329</v>
       </c>
@@ -7751,8 +8062,11 @@
       <c r="U107">
         <v>0.75765047524569196</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V107">
+        <v>0.47515327699999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1945</v>
       </c>
@@ -7816,8 +8130,11 @@
       <c r="U108">
         <v>0.83671361290907398</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V108">
+        <v>0.56280241600000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2378</v>
       </c>
@@ -7881,8 +8198,11 @@
       <c r="U109">
         <v>0.90736969526811495</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V109">
+        <v>0.686932985</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2478</v>
       </c>
@@ -7946,8 +8266,11 @@
       <c r="U110">
         <v>0.92475403609149798</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V110">
+        <v>0.52224197699999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -8011,8 +8334,11 @@
       <c r="U111">
         <v>0.82310676918840997</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V111">
+        <v>0.62143234199999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1976</v>
       </c>
@@ -8076,8 +8402,11 @@
       <c r="U112">
         <v>0.84128431318869501</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V112">
+        <v>0.49447928200000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1984</v>
       </c>
@@ -8141,8 +8470,11 @@
       <c r="U113">
         <v>1.0515667254052501</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V113">
+        <v>0.72105959399999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2009</v>
       </c>
@@ -8206,8 +8538,11 @@
       <c r="U114">
         <v>1.15891700295944</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V114">
+        <v>0.61499691000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2064</v>
       </c>
@@ -8271,8 +8606,11 @@
       <c r="U115">
         <v>1.0436464652220201</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V115">
+        <v>0.57135449800000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -8336,8 +8674,11 @@
       <c r="U116">
         <v>0.93821564286027503</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V116">
+        <v>0.41644740699999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2212</v>
       </c>
@@ -8401,8 +8742,11 @@
       <c r="U117">
         <v>0.88789725277311204</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V117">
+        <v>0.554418835</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2299</v>
       </c>
@@ -8466,8 +8810,11 @@
       <c r="U118">
         <v>1.1360464497749101</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V118">
+        <v>0.54808008500000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2342</v>
       </c>
@@ -8531,8 +8878,11 @@
       <c r="U119">
         <v>0.98258331297648605</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V119">
+        <v>0.60905305899999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1951</v>
       </c>
@@ -8596,8 +8946,11 @@
       <c r="U120">
         <v>0.98875203923009203</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V120">
+        <v>0.63631121199999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2383</v>
       </c>
@@ -8661,8 +9014,11 @@
       <c r="U121">
         <v>0.88058641430748297</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V121">
+        <v>0.54084279199999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2486</v>
       </c>
@@ -8726,8 +9082,11 @@
       <c r="U122">
         <v>1.3160492944592399</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V122">
+        <v>0.62315058800000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -8791,8 +9150,11 @@
       <c r="U123">
         <v>1.0343942332710201</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V123">
+        <v>0.51425415600000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1978</v>
       </c>
@@ -8856,8 +9218,11 @@
       <c r="U124">
         <v>1.25469112478569</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V124">
+        <v>0.58569298000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1985</v>
       </c>
@@ -8921,8 +9286,11 @@
       <c r="U125">
         <v>0.76004096314610803</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V125">
+        <v>0.52758708600000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2017</v>
       </c>
@@ -8986,8 +9354,11 @@
       <c r="U126">
         <v>0.95287464520224396</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V126">
+        <v>0.59907934799999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2065</v>
       </c>
@@ -9051,8 +9422,11 @@
       <c r="U127">
         <v>0.89920168583063498</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V127">
+        <v>0.60915557300000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -9116,8 +9490,11 @@
       <c r="U128">
         <v>1.16694805742213</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V128">
+        <v>0.64422444599999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2223</v>
       </c>
@@ -9181,8 +9558,11 @@
       <c r="U129">
         <v>1.35685532963955</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V129">
+        <v>0.51713620100000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2301</v>
       </c>
@@ -9246,8 +9626,11 @@
       <c r="U130">
         <v>1.06582478053986</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V130">
+        <v>0.54243552699999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2343</v>
       </c>
@@ -9311,8 +9694,11 @@
       <c r="U131">
         <v>0.85191567221753295</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V131">
+        <v>0.56150533199999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1956</v>
       </c>
@@ -9376,8 +9762,11 @@
       <c r="U132">
         <v>1.23035785856852</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V132">
+        <v>0.62109492300000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2408</v>
       </c>
@@ -9441,8 +9830,11 @@
       <c r="U133">
         <v>0.793657392786423</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V133">
+        <v>0.497694992</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2551</v>
       </c>
@@ -9506,8 +9898,11 @@
       <c r="U134">
         <v>1.13534707439361</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V134">
+        <v>0.66774948599999995</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2646</v>
       </c>
@@ -9571,8 +9966,11 @@
       <c r="U135">
         <v>0.77382213484581097</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V135">
+        <v>0.46253958699999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -9636,8 +10034,11 @@
       <c r="U136">
         <v>1.09011911562235</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V136">
+        <v>0.58672866899999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1990</v>
       </c>
@@ -9701,8 +10102,11 @@
       <c r="U137">
         <v>1.01482966117034</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V137">
+        <v>0.58332484900000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2022</v>
       </c>
@@ -9766,8 +10170,11 @@
       <c r="U138">
         <v>0.97085468186986001</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V138">
+        <v>0.57948770000000005</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2076</v>
       </c>
@@ -9831,8 +10238,11 @@
       <c r="U139">
         <v>0.91044021601192404</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V139">
+        <v>0.54349185499999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2114</v>
       </c>
@@ -9896,8 +10306,11 @@
       <c r="U140">
         <v>1.08655478471435</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V140">
+        <v>0.51672876099999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2224</v>
       </c>
@@ -9961,8 +10374,11 @@
       <c r="U141">
         <v>0.98663123900195204</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V141">
+        <v>0.52598877799999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2309</v>
       </c>
@@ -10026,8 +10442,11 @@
       <c r="U142">
         <v>1.22870124535766</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V142">
+        <v>0.63794853399999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2350</v>
       </c>
@@ -10091,8 +10510,11 @@
       <c r="U143">
         <v>1.2989071724899699</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V143">
+        <v>0.71724251000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1958</v>
       </c>
@@ -10156,8 +10578,11 @@
       <c r="U144">
         <v>1.0595248121254199</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V144">
+        <v>0.632796951</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2428</v>
       </c>
@@ -10221,8 +10646,11 @@
       <c r="U145">
         <v>0.73532598952371098</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V145">
+        <v>0.62323698500000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2560</v>
       </c>
@@ -10286,8 +10714,11 @@
       <c r="U146">
         <v>1.1672233244850301</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V146">
+        <v>0.69163876099999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2653</v>
       </c>
@@ -10351,8 +10782,11 @@
       <c r="U147">
         <v>0.93316815724914903</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V147">
+        <v>0.57450283400000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -10416,8 +10850,11 @@
       <c r="U148">
         <v>1.08019796340286</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V148">
+        <v>0.614848493</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1991</v>
       </c>
@@ -10481,8 +10918,11 @@
       <c r="U149">
         <v>0.931324254401242</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V149">
+        <v>0.55998442100000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2024</v>
       </c>
@@ -10546,8 +10986,11 @@
       <c r="U150">
         <v>1.23146922294044</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V150">
+        <v>0.70584391199999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2078</v>
       </c>
@@ -10611,8 +11054,11 @@
       <c r="U151">
         <v>1.0441015531475999</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V151">
+        <v>0.61413147099999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -10676,8 +11122,11 @@
       <c r="U152">
         <v>1.07761964201993</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V152">
+        <v>0.60262706300000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2229</v>
       </c>
@@ -10741,8 +11190,11 @@
       <c r="U153">
         <v>0.80577657252165402</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V153">
+        <v>0.53452532100000005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2310</v>
       </c>
@@ -10806,8 +11258,11 @@
       <c r="U154">
         <v>0.98814039016028199</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V154">
+        <v>0.58661893200000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2354</v>
       </c>
@@ -10871,8 +11326,11 @@
       <c r="U155">
         <v>0.73012953114980494</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V155">
+        <v>0.51383968400000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1966</v>
       </c>
@@ -10936,8 +11394,11 @@
       <c r="U156">
         <v>1.18569056900079</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V156">
+        <v>0.61597024700000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2444</v>
       </c>
@@ -11001,8 +11462,11 @@
       <c r="U157">
         <v>0.95715729623539803</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V157">
+        <v>0.54896011600000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2575</v>
       </c>
@@ -11066,8 +11530,11 @@
       <c r="U158">
         <v>1.2455092312056799</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V158">
+        <v>0.56402221600000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2665</v>
       </c>
@@ -11131,8 +11598,11 @@
       <c r="U159">
         <v>1.2820213522444299</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V159">
+        <v>0.611569684</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1980</v>
       </c>
@@ -11196,8 +11666,11 @@
       <c r="U160">
         <v>0.67522018326837996</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V160">
+        <v>0.463255109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1992</v>
       </c>
@@ -11261,8 +11734,11 @@
       <c r="U161">
         <v>0.97747802002488104</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V161">
+        <v>0.43507041400000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2027</v>
       </c>
@@ -11326,8 +11802,11 @@
       <c r="U162">
         <v>0.89314968023699404</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V162">
+        <v>0.59187698499999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2079</v>
       </c>
@@ -11391,8 +11870,11 @@
       <c r="U163">
         <v>0.70552659798850903</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V163">
+        <v>0.55331914599999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -11456,8 +11938,11 @@
       <c r="U164">
         <v>0.97635251297298697</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V164">
+        <v>0.52361359399999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2237</v>
       </c>
@@ -11521,8 +12006,11 @@
       <c r="U165">
         <v>0.90217235255083505</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V165">
+        <v>0.531103836</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2322</v>
       </c>
@@ -11586,8 +12074,11 @@
       <c r="U166">
         <v>1.02739879992639</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V166">
+        <v>0.57215877400000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2360</v>
       </c>
@@ -11651,8 +12142,11 @@
       <c r="U167">
         <v>0.98539549532543202</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V167">
+        <v>0.67918925200000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -11716,8 +12210,11 @@
       <c r="U168">
         <v>0.82654237615570103</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V168">
+        <v>0.57014720799999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2445</v>
       </c>
@@ -11781,8 +12278,11 @@
       <c r="U169">
         <v>1.2106793275755201</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V169">
+        <v>0.58399115099999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2576</v>
       </c>
@@ -11846,8 +12346,11 @@
       <c r="U170">
         <v>0.88628994388495796</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V170">
+        <v>0.46890683300000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1981</v>
       </c>
@@ -11911,8 +12414,11 @@
       <c r="U171">
         <v>0.66973840518486905</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V171">
+        <v>0.540014349</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1994</v>
       </c>
@@ -11976,8 +12482,11 @@
       <c r="U172">
         <v>0.841943302977887</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V172">
+        <v>0.59759246799999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2029</v>
       </c>
@@ -12041,8 +12550,11 @@
       <c r="U173">
         <v>1.29098033589455</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V173">
+        <v>0.58205622199999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2083</v>
       </c>
@@ -12106,8 +12618,11 @@
       <c r="U174">
         <v>1.0355415147042799</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V174">
+        <v>0.68805654500000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2167</v>
       </c>
@@ -12171,8 +12686,11 @@
       <c r="U175">
         <v>1.08053899447909</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V175">
+        <v>0.49145609499999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2238</v>
       </c>
@@ -12236,8 +12754,11 @@
       <c r="U176">
         <v>0.86870335904194795</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V176">
+        <v>0.47013928300000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2326</v>
       </c>
@@ -12301,8 +12822,11 @@
       <c r="U177">
         <v>0.823527382443484</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V177">
+        <v>0.59202443000000005</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2367</v>
       </c>
@@ -12366,8 +12890,11 @@
       <c r="U178">
         <v>0.74637617736249795</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V178">
+        <v>0.59516638099999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>18</v>
       </c>
@@ -12431,8 +12958,11 @@
       <c r="U179">
         <v>0.93525458954463603</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V179">
+        <v>0.66954743500000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2448</v>
       </c>
@@ -12496,8 +13026,11 @@
       <c r="U180">
         <v>0.73774748090183395</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V180">
+        <v>0.59462216000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2605</v>
       </c>
@@ -12561,8 +13094,11 @@
       <c r="U181">
         <v>0.88732595140588</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V181">
+        <v>0.54343377299999995</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1982</v>
       </c>
@@ -12626,8 +13162,11 @@
       <c r="U182">
         <v>0.84595802275042598</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V182">
+        <v>0.63260858200000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1996</v>
       </c>
@@ -12691,8 +13230,11 @@
       <c r="U183">
         <v>0.95935641535737803</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V183">
+        <v>0.62806079000000004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2036</v>
       </c>
@@ -12756,8 +13298,11 @@
       <c r="U184">
         <v>0.86328054898188999</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V184">
+        <v>0.49752565900000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2086</v>
       </c>
@@ -12821,8 +13366,11 @@
       <c r="U185">
         <v>1.2657705134149799</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V185">
+        <v>0.55735226400000004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2206</v>
       </c>
@@ -12886,8 +13434,11 @@
       <c r="U186">
         <v>0.81147703514817204</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V186">
+        <v>0.465601394</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2240</v>
       </c>
@@ -12951,8 +13502,11 @@
       <c r="U187">
         <v>0.89896717221858202</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V187">
+        <v>0.54866583800000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2328</v>
       </c>
@@ -13016,8 +13570,11 @@
       <c r="U188">
         <v>0.82737730591363301</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V188">
+        <v>0.48662286900000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2370</v>
       </c>
@@ -13081,8 +13638,11 @@
       <c r="U189">
         <v>0.95891780987674002</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V189">
+        <v>0.57168082899999995</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2714</v>
       </c>
@@ -13146,8 +13706,11 @@
       <c r="U190">
         <v>0.88403930251172402</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V190">
+        <v>0.47894546599999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>48</v>
       </c>
@@ -13211,8 +13774,11 @@
       <c r="U191">
         <v>0.91840285847743197</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V191">
+        <v>0.53272662800000004</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>56</v>
       </c>
@@ -13276,8 +13842,11 @@
       <c r="U192">
         <v>0.71201306350256399</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V192">
+        <v>0.51971624199999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>64</v>
       </c>
@@ -13341,8 +13910,11 @@
       <c r="U193">
         <v>0.651835695490115</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V193">
+        <v>0.36614600899999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2906</v>
       </c>
@@ -13406,8 +13978,11 @@
       <c r="U194">
         <v>1.3113005208066699</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V194">
+        <v>0.76833013400000005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2995</v>
       </c>
@@ -13471,8 +14046,11 @@
       <c r="U195">
         <v>0.98722228636498799</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V195">
+        <v>0.50121594599999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3030</v>
       </c>
@@ -13536,8 +14114,11 @@
       <c r="U196">
         <v>0.89397877121310898</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V196">
+        <v>0.56698023500000005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3083</v>
       </c>
@@ -13601,8 +14182,11 @@
       <c r="U197">
         <v>1.33943042307039</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V197">
+        <v>0.54916382399999997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>3093</v>
       </c>
@@ -13666,8 +14250,11 @@
       <c r="U198">
         <v>1.20569573381477</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V198">
+        <v>0.61282032600000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>3104</v>
       </c>
@@ -13731,8 +14318,11 @@
       <c r="U199">
         <v>0.90304695069562002</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V199">
+        <v>0.65045904200000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>32</v>
       </c>
@@ -13796,8 +14386,11 @@
       <c r="U200">
         <v>1.04188911861297</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V200">
+        <v>0.64526570100000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -13861,8 +14454,11 @@
       <c r="U201">
         <v>0.82484613360569903</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V201">
+        <v>0.507568664</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2767</v>
       </c>
@@ -13926,8 +14522,11 @@
       <c r="U202">
         <v>0.85436184997151199</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V202">
+        <v>0.493901971</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>49</v>
       </c>
@@ -13991,8 +14590,11 @@
       <c r="U203">
         <v>0.97595496690063399</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V203">
+        <v>0.65253811500000003</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>57</v>
       </c>
@@ -14056,8 +14658,11 @@
       <c r="U204">
         <v>0.88718243663590401</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V204">
+        <v>0.61207030900000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>65</v>
       </c>
@@ -14121,8 +14726,11 @@
       <c r="U205">
         <v>0.57918095411310799</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V205">
+        <v>0.31069776199999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2907</v>
       </c>
@@ -14186,8 +14794,11 @@
       <c r="U206">
         <v>1.3405404319748799</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V206">
+        <v>0.61696945999999997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2996</v>
       </c>
@@ -14251,8 +14862,11 @@
       <c r="U207">
         <v>1.08218080409649</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V207">
+        <v>0.56799083100000003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3033</v>
       </c>
@@ -14316,8 +14930,11 @@
       <c r="U208">
         <v>0.97143616975626401</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V208">
+        <v>0.48061164099999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>3084</v>
       </c>
@@ -14381,8 +14998,11 @@
       <c r="U209">
         <v>1.0339051777275099</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V209">
+        <v>0.54130587699999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3094</v>
       </c>
@@ -14446,8 +15066,11 @@
       <c r="U210">
         <v>1.67148731226924</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V210">
+        <v>0.51138988299999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3105</v>
       </c>
@@ -14511,8 +15134,11 @@
       <c r="U211">
         <v>0.99637614115088002</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V211">
+        <v>0.74749394199999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>33</v>
       </c>
@@ -14576,8 +15202,11 @@
       <c r="U212">
         <v>0.60836071166197403</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V212">
+        <v>0.266340099</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>41</v>
       </c>
@@ -14641,8 +15270,11 @@
       <c r="U213">
         <v>1.2329094823256901</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V213">
+        <v>0.49463915899999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2776</v>
       </c>
@@ -14706,8 +15338,11 @@
       <c r="U214">
         <v>1.0538039886233399</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V214">
+        <v>0.61648562600000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>50</v>
       </c>
@@ -14771,8 +15406,11 @@
       <c r="U215">
         <v>0.77017970714242401</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V215">
+        <v>0.72175278899999995</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>58</v>
       </c>
@@ -14836,8 +15474,11 @@
       <c r="U216">
         <v>0.93222439846460903</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V216">
+        <v>0.53118537799999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>66</v>
       </c>
@@ -14901,8 +15542,11 @@
       <c r="U217">
         <v>0.95697575676819902</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V217">
+        <v>0.58361066399999995</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2938</v>
       </c>
@@ -14966,8 +15610,11 @@
       <c r="U218">
         <v>1.0846607506474399</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V218">
+        <v>0.65299459000000004</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2997</v>
       </c>
@@ -15031,8 +15678,11 @@
       <c r="U219">
         <v>1.4830376162871199</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V219">
+        <v>0.69868216100000002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3034</v>
       </c>
@@ -15096,8 +15746,11 @@
       <c r="U220">
         <v>1.1096020541862801</v>
       </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V220">
+        <v>0.66730606400000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>3085</v>
       </c>
@@ -15161,8 +15814,11 @@
       <c r="U221">
         <v>1.15929358765905</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V221">
+        <v>0.61228369800000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>3095</v>
       </c>
@@ -15226,8 +15882,11 @@
       <c r="U222">
         <v>1.15825571501679</v>
       </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V222">
+        <v>0.71544158999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>3106</v>
       </c>
@@ -15291,8 +15950,11 @@
       <c r="U223">
         <v>1.5169692652724001</v>
       </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V223">
+        <v>0.70765429499999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -15356,8 +16018,11 @@
       <c r="U224">
         <v>0.93332451013598094</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V224">
+        <v>0.61758393300000003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>42</v>
       </c>
@@ -15421,8 +16086,11 @@
       <c r="U225">
         <v>0.95936637917363099</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V225">
+        <v>0.57047928999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2867</v>
       </c>
@@ -15486,8 +16154,11 @@
       <c r="U226">
         <v>0.91333415750041802</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V226">
+        <v>0.55248658699999997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>51</v>
       </c>
@@ -15551,8 +16222,11 @@
       <c r="U227">
         <v>0.766074768916435</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V227">
+        <v>0.42881278499999997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>59</v>
       </c>
@@ -15616,8 +16290,11 @@
       <c r="U228">
         <v>0.923386817040319</v>
       </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V228">
+        <v>0.69086299100000004</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>67</v>
       </c>
@@ -15681,8 +16358,11 @@
       <c r="U229">
         <v>0.80026286502018495</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V229">
+        <v>0.495950049</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2946</v>
       </c>
@@ -15746,8 +16426,11 @@
       <c r="U230">
         <v>1.0679636419619101</v>
       </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V230">
+        <v>0.66193705700000005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2998</v>
       </c>
@@ -15811,8 +16494,11 @@
       <c r="U231">
         <v>0.75304023730264402</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V231">
+        <v>0.41819584399999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3044</v>
       </c>
@@ -15876,8 +16562,11 @@
       <c r="U232">
         <v>1.05491353774374</v>
       </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V232">
+        <v>0.57197697700000005</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>3086</v>
       </c>
@@ -15941,8 +16630,11 @@
       <c r="U233">
         <v>1.1058000323716699</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V233">
+        <v>0.46419040700000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>3096</v>
       </c>
@@ -16006,8 +16698,11 @@
       <c r="U234">
         <v>1.1750888462882101</v>
       </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V234">
+        <v>0.73807457899999995</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>3108</v>
       </c>
@@ -16071,8 +16766,11 @@
       <c r="U235">
         <v>1.13481445030021</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V235">
+        <v>0.55990296799999995</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>35</v>
       </c>
@@ -16136,8 +16834,11 @@
       <c r="U236">
         <v>0.98872886715874397</v>
       </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V236">
+        <v>0.486133712</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>43</v>
       </c>
@@ -16201,8 +16902,11 @@
       <c r="U237">
         <v>1.2307944420768999</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V237">
+        <v>0.60540819099999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2887</v>
       </c>
@@ -16266,8 +16970,11 @@
       <c r="U238">
         <v>1.15954729230506</v>
       </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V238">
+        <v>0.70193952800000003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>52</v>
       </c>
@@ -16331,8 +17038,11 @@
       <c r="U239">
         <v>0.78870033040983101</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V239">
+        <v>0.421529033</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>60</v>
       </c>
@@ -16396,8 +17106,11 @@
       <c r="U240">
         <v>0.89749743947944205</v>
       </c>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V240">
+        <v>0.64134572999999995</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>68</v>
       </c>
@@ -16461,8 +17174,11 @@
       <c r="U241">
         <v>0.86617532200791003</v>
       </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V241">
+        <v>0.48308279799999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2948</v>
       </c>
@@ -16526,8 +17242,11 @@
       <c r="U242">
         <v>1.2353641906031601</v>
       </c>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V242">
+        <v>0.47751846399999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3024</v>
       </c>
@@ -16591,8 +17310,11 @@
       <c r="U243">
         <v>1.1996449852642701</v>
       </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V243">
+        <v>0.63545630099999995</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3060</v>
       </c>
@@ -16656,8 +17378,11 @@
       <c r="U244">
         <v>1.0916613666575701</v>
       </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V244">
+        <v>0.54810568199999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>3088</v>
       </c>
@@ -16721,8 +17446,11 @@
       <c r="U245">
         <v>0.94685577094422002</v>
       </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V245">
+        <v>0.50387079700000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>3097</v>
       </c>
@@ -16786,8 +17514,11 @@
       <c r="U246">
         <v>1.01488683808386</v>
       </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V246">
+        <v>0.56617842299999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>3109</v>
       </c>
@@ -16851,8 +17582,11 @@
       <c r="U247">
         <v>0.99389954473673403</v>
       </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V247">
+        <v>0.53955507999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>36</v>
       </c>
@@ -16916,8 +17650,11 @@
       <c r="U248">
         <v>0.85998605083598301</v>
       </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V248">
+        <v>0.53797986200000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>44</v>
       </c>
@@ -16981,8 +17718,11 @@
       <c r="U249">
         <v>0.97482294396987901</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V249">
+        <v>0.64054670199999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2888</v>
       </c>
@@ -17046,8 +17786,11 @@
       <c r="U250">
         <v>0.91983879204213703</v>
       </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V250">
+        <v>0.45103549199999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>53</v>
       </c>
@@ -17111,8 +17854,11 @@
       <c r="U251">
         <v>0.94951772168467397</v>
       </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V251">
+        <v>0.66198484899999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>61</v>
       </c>
@@ -17176,8 +17922,11 @@
       <c r="U252">
         <v>1.03902906397831</v>
       </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V252">
+        <v>0.53910028099999996</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>69</v>
       </c>
@@ -17241,8 +17990,11 @@
       <c r="U253">
         <v>0.84645755911266196</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V253">
+        <v>0.622810839</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2964</v>
       </c>
@@ -17306,8 +18058,11 @@
       <c r="U254">
         <v>1.1798822235047699</v>
       </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V254">
+        <v>0.54953349100000004</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>3025</v>
       </c>
@@ -17371,8 +18126,11 @@
       <c r="U255">
         <v>1.0018296815919601</v>
       </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V255">
+        <v>0.64413250499999997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3062</v>
       </c>
@@ -17436,8 +18194,11 @@
       <c r="U256">
         <v>1.2075087272556</v>
       </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V256">
+        <v>0.522014969</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>3089</v>
       </c>
@@ -17501,8 +18262,11 @@
       <c r="U257">
         <v>1.14089705519655</v>
       </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V257">
+        <v>0.64182001399999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>3098</v>
       </c>
@@ -17566,8 +18330,11 @@
       <c r="U258">
         <v>1.24354446161555</v>
       </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V258">
+        <v>0.65485944799999996</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>29</v>
       </c>
@@ -17631,8 +18398,11 @@
       <c r="U259">
         <v>0.69182383600575803</v>
       </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V259">
+        <v>0.56850534100000005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>37</v>
       </c>
@@ -17696,8 +18466,11 @@
       <c r="U260">
         <v>0.83469922087821702</v>
       </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V260">
+        <v>0.55789288299999995</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>45</v>
       </c>
@@ -17761,8 +18534,11 @@
       <c r="U261">
         <v>1.0592899039799799</v>
       </c>
-    </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V261">
+        <v>0.65352819399999995</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2895</v>
       </c>
@@ -17826,8 +18602,11 @@
       <c r="U262">
         <v>1.1674704405521199</v>
       </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V262">
+        <v>0.68323906499999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>54</v>
       </c>
@@ -17891,8 +18670,11 @@
       <c r="U263">
         <v>0.86391342090356904</v>
       </c>
-    </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V263">
+        <v>0.62326173500000004</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>62</v>
       </c>
@@ -17956,8 +18738,11 @@
       <c r="U264">
         <v>0.83283114490525401</v>
       </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V264">
+        <v>0.57284647300000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -18021,8 +18806,11 @@
       <c r="U265">
         <v>1.0221161033050601</v>
       </c>
-    </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V265">
+        <v>0.528322293</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3027</v>
       </c>
@@ -18086,8 +18874,11 @@
       <c r="U266">
         <v>0.99512870469147996</v>
       </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V266">
+        <v>0.53005709400000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>3068</v>
       </c>
@@ -18151,8 +18942,11 @@
       <c r="U267">
         <v>1.66795462498709</v>
       </c>
-    </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V267">
+        <v>0.75090393799999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3091</v>
       </c>
@@ -18216,8 +19010,11 @@
       <c r="U268">
         <v>0.83644084695876597</v>
       </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V268">
+        <v>0.68741842200000003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>3099</v>
       </c>
@@ -18281,8 +19078,11 @@
       <c r="U269">
         <v>1.17128079013527</v>
       </c>
-    </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V269">
+        <v>0.626675659</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>30</v>
       </c>
@@ -18346,8 +19146,11 @@
       <c r="U270">
         <v>0.98291658330204301</v>
       </c>
-    </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V270">
+        <v>0.71777086800000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>38</v>
       </c>
@@ -18411,8 +19214,11 @@
       <c r="U271">
         <v>0.78805134016234002</v>
       </c>
-    </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V271">
+        <v>0.62638715700000003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>46</v>
       </c>
@@ -18476,8 +19282,11 @@
       <c r="U272">
         <v>1.1949982946708</v>
       </c>
-    </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V272">
+        <v>0.71603919999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2905</v>
       </c>
@@ -18541,8 +19350,11 @@
       <c r="U273">
         <v>1.1866787436286099</v>
       </c>
-    </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V273">
+        <v>0.63600910300000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>55</v>
       </c>
@@ -18606,8 +19418,11 @@
       <c r="U274">
         <v>0.95718014657848005</v>
       </c>
-    </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V274">
+        <v>0.58646811399999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>63</v>
       </c>
@@ -18671,8 +19486,11 @@
       <c r="U275">
         <v>0.71052738889251199</v>
       </c>
-    </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V275">
+        <v>0.85796448999999997</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>28</v>
       </c>
@@ -18736,8 +19554,11 @@
       <c r="U276">
         <v>0.68967778716987205</v>
       </c>
-    </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V276">
+        <v>0.50762304000000003</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>3029</v>
       </c>
@@ -18801,8 +19622,11 @@
       <c r="U277">
         <v>1.10460745236253</v>
       </c>
-    </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V277">
+        <v>0.52746375899999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>3082</v>
       </c>
@@ -18866,8 +19690,11 @@
       <c r="U278">
         <v>1.7734696749137799</v>
       </c>
-    </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V278">
+        <v>0.74468879200000004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>3092</v>
       </c>
@@ -18931,8 +19758,11 @@
       <c r="U279">
         <v>1.2209020807890001</v>
       </c>
-    </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V279">
+        <v>0.61397213799999995</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>3103</v>
       </c>
@@ -18996,8 +19826,11 @@
       <c r="U280">
         <v>0.96398268447219004</v>
       </c>
-    </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V280">
+        <v>0.53628072900000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>31</v>
       </c>
@@ -19061,8 +19894,11 @@
       <c r="U281">
         <v>1.3113536766279099</v>
       </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V281">
+        <v>0.66711855900000006</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>39</v>
       </c>
@@ -19126,8 +19962,11 @@
       <c r="U282">
         <v>0.847047644093045</v>
       </c>
-    </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V282">
+        <v>0.54655782600000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>47</v>
       </c>
@@ -19191,8 +20030,11 @@
       <c r="U283">
         <v>0.98549559581935298</v>
       </c>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V283">
+        <v>0.69288786499999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>70</v>
       </c>
@@ -19256,8 +20098,11 @@
       <c r="U284">
         <v>0.94086513476050104</v>
       </c>
-    </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V284">
+        <v>0.56910221500000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>78</v>
       </c>
@@ -19321,8 +20166,11 @@
       <c r="U285">
         <v>0.72945606291089604</v>
       </c>
-    </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V285">
+        <v>0.59130946500000003</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>86</v>
       </c>
@@ -19386,8 +20234,11 @@
       <c r="U286">
         <v>1.0523738327548</v>
       </c>
-    </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V286">
+        <v>0.56901734900000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>94</v>
       </c>
@@ -19451,8 +20302,11 @@
       <c r="U287">
         <v>0.90501194285525899</v>
       </c>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V287">
+        <v>0.68966514599999995</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>102</v>
       </c>
@@ -19516,8 +20370,11 @@
       <c r="U288">
         <v>1.1982163241331001</v>
       </c>
-    </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V288">
+        <v>0.69975631199999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>71</v>
       </c>
@@ -19581,8 +20438,11 @@
       <c r="U289">
         <v>1.0175642574086401</v>
       </c>
-    </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V289">
+        <v>0.46399604</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>79</v>
       </c>
@@ -19646,8 +20506,11 @@
       <c r="U290">
         <v>0.92017183391751101</v>
       </c>
-    </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V290">
+        <v>0.51037054900000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>87</v>
       </c>
@@ -19711,8 +20574,11 @@
       <c r="U291">
         <v>0.82188746679990698</v>
       </c>
-    </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V291">
+        <v>0.48544764699999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>95</v>
       </c>
@@ -19776,8 +20642,11 @@
       <c r="U292">
         <v>1.2830152971854401</v>
       </c>
-    </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V292">
+        <v>0.59067009100000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>103</v>
       </c>
@@ -19841,8 +20710,11 @@
       <c r="U293">
         <v>1.09544706966445</v>
       </c>
-    </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V293">
+        <v>0.64081349499999996</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>72</v>
       </c>
@@ -19906,8 +20778,11 @@
       <c r="U294">
         <v>0.93439328423035695</v>
       </c>
-    </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V294">
+        <v>0.56501082800000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>80</v>
       </c>
@@ -19971,8 +20846,11 @@
       <c r="U295">
         <v>0.80437000242491496</v>
       </c>
-    </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V295">
+        <v>0.445398611</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>88</v>
       </c>
@@ -20036,8 +20914,11 @@
       <c r="U296">
         <v>0.93300093305509602</v>
       </c>
-    </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V296">
+        <v>0.64940263399999998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>96</v>
       </c>
@@ -20101,8 +20982,11 @@
       <c r="U297">
         <v>1.2959562429043601</v>
       </c>
-    </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V297">
+        <v>0.603446924</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>104</v>
       </c>
@@ -20166,8 +21050,11 @@
       <c r="U298">
         <v>0.76074652976443402</v>
       </c>
-    </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V298">
+        <v>0.66681177000000003</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>73</v>
       </c>
@@ -20231,8 +21118,11 @@
       <c r="U299">
         <v>0.78452377313145705</v>
       </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V299">
+        <v>0.48810377500000002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>81</v>
       </c>
@@ -20296,8 +21186,11 @@
       <c r="U300">
         <v>0.95581676715310004</v>
       </c>
-    </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V300">
+        <v>0.54282719099999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>89</v>
       </c>
@@ -20361,8 +21254,11 @@
       <c r="U301">
         <v>0.98841410203095503</v>
       </c>
-    </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V301">
+        <v>0.480382115</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>97</v>
       </c>
@@ -20426,8 +21322,11 @@
       <c r="U302">
         <v>0.57385421480924803</v>
       </c>
-    </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V302">
+        <v>0.368468982</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>105</v>
       </c>
@@ -20491,8 +21390,11 @@
       <c r="U303">
         <v>0.68335920029219799</v>
       </c>
-    </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V303">
+        <v>0.70720791100000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>74</v>
       </c>
@@ -20556,8 +21458,11 @@
       <c r="U304">
         <v>1.03395454787147</v>
       </c>
-    </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V304">
+        <v>0.559557886</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>82</v>
       </c>
@@ -20621,8 +21526,11 @@
       <c r="U305">
         <v>1.06543591115285</v>
       </c>
-    </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V305">
+        <v>0.57066235899999995</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -20686,8 +21594,11 @@
       <c r="U306">
         <v>1.1782742087853799</v>
       </c>
-    </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V306">
+        <v>0.62206532599999997</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>98</v>
       </c>
@@ -20751,8 +21662,11 @@
       <c r="U307">
         <v>0.87052914899446499</v>
       </c>
-    </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V307">
+        <v>0.56555628099999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>106</v>
       </c>
@@ -20816,8 +21730,11 @@
       <c r="U308">
         <v>1.0691279619356</v>
       </c>
-    </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V308">
+        <v>0.60385542000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>75</v>
       </c>
@@ -20881,8 +21798,11 @@
       <c r="U309">
         <v>0.92944099882388098</v>
       </c>
-    </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V309">
+        <v>0.56933611299999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>83</v>
       </c>
@@ -20946,8 +21866,11 @@
       <c r="U310">
         <v>1.21851278099614</v>
       </c>
-    </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V310">
+        <v>0.565382469</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>91</v>
       </c>
@@ -21011,8 +21934,11 @@
       <c r="U311">
         <v>0.96084754138055395</v>
       </c>
-    </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V311">
+        <v>0.59628916799999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -21076,8 +22002,11 @@
       <c r="U312">
         <v>0.67000795007863101</v>
       </c>
-    </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V312">
+        <v>0.59505742100000003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>107</v>
       </c>
@@ -21141,8 +22070,11 @@
       <c r="U313">
         <v>1.3749088872633</v>
       </c>
-    </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V313">
+        <v>0.63369242599999998</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>76</v>
       </c>
@@ -21206,8 +22138,11 @@
       <c r="U314">
         <v>1.17065722729616</v>
       </c>
-    </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V314">
+        <v>0.52861874200000003</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>84</v>
       </c>
@@ -21271,8 +22206,11 @@
       <c r="U315">
         <v>0.87196747879136205</v>
       </c>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V315">
+        <v>0.54895314100000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>92</v>
       </c>
@@ -21336,8 +22274,11 @@
       <c r="U316">
         <v>0.940261319169858</v>
       </c>
-    </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V316">
+        <v>0.54158884699999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>100</v>
       </c>
@@ -21401,8 +22342,11 @@
       <c r="U317">
         <v>0.98691498235581099</v>
       </c>
-    </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V317">
+        <v>0.75102753799999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>77</v>
       </c>
@@ -21466,8 +22410,11 @@
       <c r="U318">
         <v>0.93200417792001899</v>
       </c>
-    </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V318">
+        <v>0.53644122800000005</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>85</v>
       </c>
@@ -21531,8 +22478,11 @@
       <c r="U319">
         <v>1.0342136141952201</v>
       </c>
-    </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V319">
+        <v>0.56269550899999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>93</v>
       </c>
@@ -21596,8 +22546,11 @@
       <c r="U320">
         <v>1.15706139237803</v>
       </c>
-    </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V320">
+        <v>0.70746476999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>101</v>
       </c>
@@ -21661,10 +22614,13 @@
       <c r="U321">
         <v>0.96619419355929803</v>
       </c>
+      <c r="V321">
+        <v>0.62170879199999995</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U321">
-    <sortCondition ref="B1:B321"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V323">
+    <sortCondition ref="B1:B323"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -21706,10 +22662,10 @@
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E1" t="s">
